--- a/MPI.xlsx
+++ b/MPI.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
+    <sheet name="lab2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Matrix size</t>
   </si>
@@ -69,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -88,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -111,20 +112,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,6 +627,396 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-570F-4167-BAFF-9C8950693652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="324100911"/>
+        <c:axId val="324099663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="324100911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324099663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324099663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324100911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lab2'!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab2'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.48399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>211.90700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF9F-4924-867D-85E8E99F7853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 proc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab2'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.8839999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1819999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9415000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72429699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2077429999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.750368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.813806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.561638000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF9F-4924-867D-85E8E99F7853}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -772,7 +1257,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1294,6 +2322,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1609,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1620,40 +2685,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1677,27 +2742,27 @@
       <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <f>B4/C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1.5E-5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f>B4/E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f>B4/G4</f>
         <v>0</v>
       </c>
@@ -1706,27 +2771,27 @@
       <c r="A5" s="1">
         <v>100</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>5.8999999999999998E-5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D15" si="0">B5/C5</f>
         <v>0.22033898305084745</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F15" si="1">B5/E5</f>
         <v>0.25</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>7.3999999999999996E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H15" si="2">B5/G5</f>
         <v>0.17567567567567569</v>
       </c>
@@ -1735,27 +2800,27 @@
       <c r="A6" s="1">
         <v>1000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>1.665E-3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>3.4069999999999999E-3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>0.48869973583798065</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>3.3579999999999999E-3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>0.49583085169743896</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>3.6259999999999999E-3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0.45918367346938777</v>
       </c>
@@ -1764,27 +2829,27 @@
       <c r="A7" s="1">
         <v>2000</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>8.2019999999999992E-3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>1.3856E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>0.59194572748267893</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>1.4189E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>0.57805342166466978</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>1.4189E-2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0.57805342166466978</v>
       </c>
@@ -1793,27 +2858,27 @@
       <c r="A8" s="1">
         <v>3000</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1.694E-2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>3.014E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>0.56204379562043794</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>2.9611999999999999E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>0.57206537890044573</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>3.2881000000000001E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0.51519114382165987</v>
       </c>
@@ -1822,27 +2887,27 @@
       <c r="A9" s="1">
         <v>4000</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>2.7039000000000001E-2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>5.1635E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>0.52365643458894162</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>5.3490000000000003E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>0.50549635445877728</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>5.6835999999999998E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0.47573720881131681</v>
       </c>
@@ -1851,27 +2916,27 @@
       <c r="A10" s="1">
         <v>5000</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>3.7787000000000001E-2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>8.8510000000000005E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>0.42692351146763075</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>8.2780999999999993E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>0.45646947971152807</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>8.3396999999999999E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0.45309783325539288</v>
       </c>
@@ -1880,27 +2945,27 @@
       <c r="A11" s="1">
         <v>6000</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>4.9952999999999997E-2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>0.14019200000000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>0.35631847751654866</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>0.12028800000000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>0.41527833200319231</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>0.126857</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0.39377409208794151</v>
       </c>
@@ -1909,27 +2974,27 @@
       <c r="A12" s="1">
         <v>7000</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>6.7659999999999998E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>0.169178</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>0.39993379753868707</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>0.15555099999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>0.43496988126080838</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>0.17463600000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>0.38743443505348263</v>
       </c>
@@ -1938,27 +3003,27 @@
       <c r="A13" s="1">
         <v>8000</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>8.6827000000000001E-2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>0.241924</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>0.35890196921347201</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>0.195049</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>0.44515480725356193</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>0.22478000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>0.38627546934780671</v>
       </c>
@@ -1967,27 +3032,27 @@
       <c r="A14" s="1">
         <v>9000</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>0.111683</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>0.28642000000000001</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>0.3899273793729488</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>0.24324000000000001</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>0.45914734418681136</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>0.28276699999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>0.39496475897116712</v>
       </c>
@@ -1996,27 +3061,27 @@
       <c r="A15" s="1">
         <v>10000</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>0.13761999999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>0.34631400000000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>0.39738503208071285</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>0.334559</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>0.41134747533319982</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>0.37058400000000002</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>0.37135979966755173</v>
       </c>
@@ -2034,4 +3099,268 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.8839999999999998E-3</v>
+      </c>
+      <c r="D4" s="13">
+        <f>B4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.1819999999999999E-3</v>
+      </c>
+      <c r="D5" s="13">
+        <f>B5/C5</f>
+        <v>0.31426775612822128</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>500</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.9415000000000004E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>B6/C6</f>
+        <v>2.0456673629618956</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.72429699999999997</v>
+      </c>
+      <c r="D7" s="13">
+        <f>B7/C7</f>
+        <v>2.6826011981272879</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8.0640000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.2077429999999998</v>
+      </c>
+      <c r="D8" s="13">
+        <f>B8/C8</f>
+        <v>2.5139171062020869</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45.335999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.750368</v>
+      </c>
+      <c r="D9" s="13">
+        <f>B9/C9</f>
+        <v>3.5556620797140912</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B10" s="2">
+        <v>112.48399999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29.813806</v>
+      </c>
+      <c r="D10" s="13">
+        <f>B10/C10</f>
+        <v>3.7728829388639609</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="6">
+        <v>211.90700000000001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>41.561638000000002</v>
+      </c>
+      <c r="D11" s="14">
+        <f>B11/C11</f>
+        <v>5.0986200303270053</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/MPI.xlsx
+++ b/MPI.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
     <sheet name="lab2" sheetId="2" r:id="rId2"/>
+    <sheet name="lab3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Matrix size</t>
   </si>
@@ -63,6 +64,9 @@
   </si>
   <si>
     <t>8 processors</t>
+  </si>
+  <si>
+    <t>System size</t>
   </si>
 </sst>
 </file>
@@ -188,33 +192,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -421,40 +425,40 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.1000000000000001E-5</c:v>
+                  <c:v>5.5999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8999999999999998E-5</c:v>
+                  <c:v>2.5900000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4069999999999999E-3</c:v>
+                  <c:v>4.6249999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3856E-2</c:v>
+                  <c:v>1.0514000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.014E-2</c:v>
+                  <c:v>2.2518E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1635E-2</c:v>
+                  <c:v>6.1421999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8510000000000005E-2</c:v>
+                  <c:v>6.2858999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14019200000000001</c:v>
+                  <c:v>9.0407000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.169178</c:v>
+                  <c:v>0.122241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.241924</c:v>
+                  <c:v>0.15592400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28642000000000001</c:v>
+                  <c:v>0.198659</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34631400000000001</c:v>
+                  <c:v>0.24135100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,40 +507,40 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.5E-5</c:v>
+                  <c:v>1.1039999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1999999999999997E-5</c:v>
+                  <c:v>1.096E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3579999999999999E-3</c:v>
+                  <c:v>4.8960000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4189E-2</c:v>
+                  <c:v>1.1858E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9611999999999999E-2</c:v>
+                  <c:v>2.5405E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3490000000000003E-2</c:v>
+                  <c:v>3.8876000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2780999999999993E-2</c:v>
+                  <c:v>6.2873999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12028800000000001</c:v>
+                  <c:v>8.4222000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15555099999999999</c:v>
+                  <c:v>0.109281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.195049</c:v>
+                  <c:v>0.14449500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24324000000000001</c:v>
+                  <c:v>0.18490599999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.334559</c:v>
+                  <c:v>0.224104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,40 +589,40 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>1.797E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3999999999999996E-5</c:v>
+                  <c:v>3.6189999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6259999999999999E-3</c:v>
+                  <c:v>7.463E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4189E-2</c:v>
+                  <c:v>1.4225E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2881000000000001E-2</c:v>
+                  <c:v>2.5867999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6835999999999998E-2</c:v>
+                  <c:v>4.2053E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3396999999999999E-2</c:v>
+                  <c:v>6.0872999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.126857</c:v>
+                  <c:v>8.5197999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17463600000000001</c:v>
+                  <c:v>0.113828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22478000000000001</c:v>
+                  <c:v>0.14413599999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28276699999999999</c:v>
+                  <c:v>0.17988399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37058400000000002</c:v>
+                  <c:v>0.23332800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,6 +1021,536 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF9F-4924-867D-85E8E99F7853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="324100911"/>
+        <c:axId val="324099663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="324100911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324099663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324099663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324100911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lab3'!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab3'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4820000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D49A-493E-B8CC-8DEBBEBDE7F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 proc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab3'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.7000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9700000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.716E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21568699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.915574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4207420000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6789079999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1165000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D49A-493E-B8CC-8DEBBEBDE7F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 proc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab3'!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1898000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.182309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72326299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.91395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8461129999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6523779999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D49A-493E-B8CC-8DEBBEBDE7F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8 proc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab3'!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.5301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3499999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57738100000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.851051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4658990000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.419924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.475458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.367104999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D49A-493E-B8CC-8DEBBEBDE7F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1297,6 +1831,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1801,6 +2375,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2339,6 +3416,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2675,7 +3789,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G4" sqref="G4:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2685,40 +3799,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2746,21 +3860,21 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>3.1000000000000001E-5</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="D4" s="2">
         <f>B4/C4</f>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>1.5E-5</v>
+        <v>1.1039999999999999E-3</v>
       </c>
       <c r="F4" s="2">
         <f>B4/E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0000000000000002E-5</v>
+        <v>1.797E-3</v>
       </c>
       <c r="H4" s="2">
         <f>B4/G4</f>
@@ -2775,25 +3889,25 @@
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C5" s="2">
-        <v>5.8999999999999998E-5</v>
+        <v>2.5900000000000001E-4</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D15" si="0">B5/C5</f>
-        <v>0.22033898305084745</v>
+        <v>5.019305019305019E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>5.1999999999999997E-5</v>
+        <v>1.096E-3</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F15" si="1">B5/E5</f>
-        <v>0.25</v>
+        <v>1.1861313868613138E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>7.3999999999999996E-5</v>
+        <v>3.6189999999999998E-3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ref="H5:H15" si="2">B5/G5</f>
-        <v>0.17567567567567569</v>
+        <v>3.592152528322741E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2804,25 +3918,25 @@
         <v>1.665E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>3.4069999999999999E-3</v>
+        <v>4.6249999999999998E-3</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.48869973583798065</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="E6" s="2">
-        <v>3.3579999999999999E-3</v>
+        <v>4.8960000000000002E-3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>0.49583085169743896</v>
+        <v>0.34007352941176472</v>
       </c>
       <c r="G6" s="2">
-        <v>3.6259999999999999E-3</v>
+        <v>7.463E-3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
-        <v>0.45918367346938777</v>
+        <v>0.22310062977354952</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2833,25 +3947,25 @@
         <v>8.2019999999999992E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>1.3856E-2</v>
+        <v>1.0514000000000001E-2</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.59194572748267893</v>
+        <v>0.78010272018261351</v>
       </c>
       <c r="E7" s="2">
-        <v>1.4189E-2</v>
+        <v>1.1858E-2</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>0.57805342166466978</v>
+        <v>0.69168493843818513</v>
       </c>
       <c r="G7" s="2">
-        <v>1.4189E-2</v>
+        <v>1.4225E-2</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
-        <v>0.57805342166466978</v>
+        <v>0.57659050966608083</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2862,25 +3976,25 @@
         <v>1.694E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>3.014E-2</v>
+        <v>2.2518E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.56204379562043794</v>
+        <v>0.75228705924149575</v>
       </c>
       <c r="E8" s="2">
-        <v>2.9611999999999999E-2</v>
+        <v>2.5405E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>0.57206537890044573</v>
+        <v>0.66679787443416649</v>
       </c>
       <c r="G8" s="2">
-        <v>3.2881000000000001E-2</v>
+        <v>2.5867999999999999E-2</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>0.51519114382165987</v>
+        <v>0.65486315138394935</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2891,25 +4005,25 @@
         <v>2.7039000000000001E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>5.1635E-2</v>
+        <v>6.1421999999999997E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.52365643458894162</v>
+        <v>0.44021686040832275</v>
       </c>
       <c r="E9" s="2">
-        <v>5.3490000000000003E-2</v>
+        <v>3.8876000000000001E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>0.50549635445877728</v>
+        <v>0.69551908632575365</v>
       </c>
       <c r="G9" s="2">
-        <v>5.6835999999999998E-2</v>
+        <v>4.2053E-2</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>0.47573720881131681</v>
+        <v>0.64297434190188574</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -2920,25 +4034,25 @@
         <v>3.7787000000000001E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>8.8510000000000005E-2</v>
+        <v>6.2858999999999998E-2</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.42692351146763075</v>
+        <v>0.60113905725512662</v>
       </c>
       <c r="E10" s="2">
-        <v>8.2780999999999993E-2</v>
+        <v>6.2873999999999999E-2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>0.45646947971152807</v>
+        <v>0.60099564207780642</v>
       </c>
       <c r="G10" s="2">
-        <v>8.3396999999999999E-2</v>
+        <v>6.0872999999999997E-2</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>0.45309783325539288</v>
+        <v>0.62075140045668853</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -2949,25 +4063,25 @@
         <v>4.9952999999999997E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>0.14019200000000001</v>
+        <v>9.0407000000000001E-2</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.35631847751654866</v>
+        <v>0.55253464886568515</v>
       </c>
       <c r="E11" s="2">
-        <v>0.12028800000000001</v>
+        <v>8.4222000000000005E-2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>0.41527833200319231</v>
+        <v>0.59311106361758203</v>
       </c>
       <c r="G11" s="2">
-        <v>0.126857</v>
+        <v>8.5197999999999996E-2</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>0.39377409208794151</v>
+        <v>0.5863165802014132</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2978,25 +4092,25 @@
         <v>6.7659999999999998E-2</v>
       </c>
       <c r="C12" s="2">
-        <v>0.169178</v>
+        <v>0.122241</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0.39993379753868707</v>
+        <v>0.5534967809491087</v>
       </c>
       <c r="E12" s="2">
-        <v>0.15555099999999999</v>
+        <v>0.109281</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>0.43496988126080838</v>
+        <v>0.61913781901702947</v>
       </c>
       <c r="G12" s="2">
-        <v>0.17463600000000001</v>
+        <v>0.113828</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>0.38743443505348263</v>
+        <v>0.59440559440559437</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -3007,25 +4121,25 @@
         <v>8.6827000000000001E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>0.241924</v>
+        <v>0.15592400000000001</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.35890196921347201</v>
+        <v>0.55685462148226061</v>
       </c>
       <c r="E13" s="2">
-        <v>0.195049</v>
+        <v>0.14449500000000001</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>0.44515480725356193</v>
+        <v>0.60089968511021141</v>
       </c>
       <c r="G13" s="2">
-        <v>0.22478000000000001</v>
+        <v>0.14413599999999999</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>0.38627546934780671</v>
+        <v>0.60239634789365604</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -3036,25 +4150,25 @@
         <v>0.111683</v>
       </c>
       <c r="C14" s="2">
-        <v>0.28642000000000001</v>
+        <v>0.198659</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.3899273793729488</v>
+        <v>0.56218444671522561</v>
       </c>
       <c r="E14" s="2">
-        <v>0.24324000000000001</v>
+        <v>0.18490599999999999</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>0.45914734418681136</v>
+        <v>0.60399878857365374</v>
       </c>
       <c r="G14" s="2">
-        <v>0.28276699999999999</v>
+        <v>0.17988399999999999</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>0.39496475897116712</v>
+        <v>0.6208612216761914</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -3065,25 +4179,25 @@
         <v>0.13761999999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>0.34631400000000001</v>
+        <v>0.24135100000000001</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.39738503208071285</v>
+        <v>0.5702068771208737</v>
       </c>
       <c r="E15" s="2">
-        <v>0.334559</v>
+        <v>0.224104</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.41134747533319982</v>
+        <v>0.61408988683825361</v>
       </c>
       <c r="G15" s="2">
-        <v>0.37058400000000002</v>
+        <v>0.23332800000000001</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
-        <v>0.37135979966755173</v>
+        <v>0.58981348145100454</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +4219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3117,46 +4231,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="20"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3168,14 +4282,14 @@
       <c r="C4" s="2">
         <v>2.8839999999999998E-3</v>
       </c>
-      <c r="D4" s="13">
-        <f>B4/C4</f>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D11" si="0">B4/C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3187,14 +4301,14 @@
       <c r="C5" s="2">
         <v>3.1819999999999999E-3</v>
       </c>
-      <c r="D5" s="13">
-        <f>B5/C5</f>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
         <v>0.31426775612822128</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3206,14 +4320,14 @@
       <c r="C6" s="2">
         <v>6.9415000000000004E-2</v>
       </c>
-      <c r="D6" s="13">
-        <f>B6/C6</f>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
         <v>2.0456673629618956</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3225,14 +4339,14 @@
       <c r="C7" s="2">
         <v>0.72429699999999997</v>
       </c>
-      <c r="D7" s="13">
-        <f>B7/C7</f>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
         <v>2.6826011981272879</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3244,14 +4358,14 @@
       <c r="C8" s="2">
         <v>3.2077429999999998</v>
       </c>
-      <c r="D8" s="13">
-        <f>B8/C8</f>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
         <v>2.5139171062020869</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3263,14 +4377,14 @@
       <c r="C9" s="2">
         <v>12.750368</v>
       </c>
-      <c r="D9" s="13">
-        <f>B9/C9</f>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
         <v>3.5556620797140912</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3282,73 +4396,73 @@
       <c r="C10" s="2">
         <v>29.813806</v>
       </c>
-      <c r="D10" s="13">
-        <f>B10/C10</f>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
         <v>3.7728829388639609</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>3000</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>211.90700000000001</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>41.561638000000002</v>
       </c>
-      <c r="D11" s="14">
-        <f>B11/C11</f>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
         <v>5.0986200303270053</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3363,4 +4477,360 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>B4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>B4/E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.5301E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>B4/G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.9700000000000005E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D15" si="0">B5/C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F15" si="1">B5/E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H15" si="2">B5/G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>500</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.716E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66273932253313694</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.1898000000000003E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.56429870211298505</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.57738100000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1175255160803692E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.161</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.21568699999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74645203466133803</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.182309</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8831160282816537</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.851051</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3188684266564093E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.915574</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81369719978942168</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.72326299999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0300540743823479</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.4658990000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9787045069856958E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.4207420000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.800994075370279</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.91395</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0130881161994827</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12.419924</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15612011796529512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.6789079999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8365199743187941</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.8461129999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0176508074515751</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18.475458</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21184860478154319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7.4820000000000002</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.1165000000000003</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92182591018296067</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.6523779999999997</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1247105922122886</v>
+      </c>
+      <c r="G11" s="4">
+        <v>26.367104999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28376266563962937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/MPI.xlsx
+++ b/MPI.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lab1" sheetId="1" r:id="rId1"/>
     <sheet name="lab2" sheetId="2" r:id="rId2"/>
     <sheet name="lab3" sheetId="3" r:id="rId3"/>
+    <sheet name="lab4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Matrix size</t>
   </si>
@@ -67,6 +68,21 @@
   </si>
   <si>
     <t>System size</t>
+  </si>
+  <si>
+    <t>Data Amount</t>
+  </si>
+  <si>
+    <t>Serial Bubble Sorting</t>
+  </si>
+  <si>
+    <t>2 proc</t>
+  </si>
+  <si>
+    <t>4 proc</t>
+  </si>
+  <si>
+    <t>8 proc</t>
   </si>
 </sst>
 </file>
@@ -188,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -223,6 +239,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +786,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1751,6 +1772,611 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 proc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lab4'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab4'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.365E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5590000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000">
+                  <c:v>0.2145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84523400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9121090000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3674330000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4094769999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3A2-4A28-9941-9A1FF86E8B9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 proc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lab4'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab4'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3670000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5140000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19292599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.784138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.683813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9709979999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7580239999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E3A2-4A28-9941-9A1FF86E8B9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 proc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lab4'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab4'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.6323000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5938000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18607199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70970900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.608198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8112200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3970950000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E3A2-4A28-9941-9A1FF86E8B9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Serial Bubble</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lab4'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lab4'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2210000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3A2-4A28-9941-9A1FF86E8B9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="324100911"/>
+        <c:axId val="324099663"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="324100911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324099663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324099663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324100911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1871,6 +2497,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2878,6 +3544,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3466,6 +4635,43 @@
       <xdr:colOff>253999</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4220,7 +5426,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4483,7 +5689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4588,21 +5794,21 @@
         <v>4.9700000000000005E-4</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D15" si="0">B5/C5</f>
+        <f t="shared" ref="D5:D11" si="0">B5/C5</f>
         <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>1.0300000000000001E-3</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F15" si="1">B5/E5</f>
+        <f t="shared" ref="F5:F11" si="1">B5/E5</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>4.3499999999999997E-3</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H15" si="2">B5/G5</f>
+        <f t="shared" ref="H5:H11" si="2">B5/G5</f>
         <v>0</v>
       </c>
     </row>
@@ -4833,4 +6039,174 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.365E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3670000000000002E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.6323000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.5590000000000001E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.5140000000000002E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5938000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.2145</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.19292599999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.18607199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.84523400000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.784138</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.70970900000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.9121090000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.683813</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.608198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.3674330000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.9709979999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.8112200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.4094769999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.7580239999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.3970950000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>